--- a/config_2.9/fish_3d_yutu_random_3.xlsx
+++ b/config_2.9/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,10 +205,6 @@
   </si>
   <si>
     <t>5,5,5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -292,6 +288,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,143,144,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,145,146,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,147,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,35 +328,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,143,144,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,145,146,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,147,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,161,162,163,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,</t>
+    <t>161,162,163,161,162,163,170,171,172,170,171,172,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,173,174,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,175,176,176,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,176,178,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +470,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -503,11 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,6 +520,23 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1111,10 +1123,10 @@
         <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1122,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1131,7 +1143,7 @@
         <v>220</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1139,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1148,7 +1160,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1156,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1165,7 +1177,7 @@
         <v>250</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1173,7 +1185,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="11">
         <v>300</v>
@@ -1182,7 +1194,7 @@
         <v>500</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1190,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="11">
         <v>400</v>
@@ -1199,7 +1211,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1207,7 +1219,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="11">
         <v>20</v>
@@ -1216,7 +1228,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="10"/>
       <c r="H7" s="10"/>
@@ -1226,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="11">
         <v>280</v>
@@ -1235,7 +1247,7 @@
         <v>300</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1243,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="11">
         <v>40</v>
@@ -1252,7 +1264,7 @@
         <v>80</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1260,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="11">
         <v>50</v>
@@ -1269,7 +1281,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="10"/>
@@ -1279,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>1500</v>
@@ -1288,7 +1300,7 @@
         <v>1800</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -1299,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>3000</v>
@@ -1308,7 +1320,7 @@
         <v>3300</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
@@ -1319,7 +1331,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="11">
         <v>4500</v>
@@ -1328,7 +1340,7 @@
         <v>4800</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1336,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="11">
         <v>500</v>
@@ -1345,7 +1357,7 @@
         <v>700</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1353,7 +1365,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C15" s="11">
         <v>2000</v>
@@ -1362,7 +1374,7 @@
         <v>4000</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1375,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1500,7 +1512,7 @@
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1524,7 +1536,7 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1547,7 +1559,7 @@
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1570,7 +1582,7 @@
       <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1586,286 +1598,352 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+    <row r="9" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="16">
         <v>65</v>
       </c>
-      <c r="D9" s="19">
-        <v>2</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19">
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="16">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>66</v>
       </c>
-      <c r="D10" s="19">
-        <v>2</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19">
+      <c r="D10" s="16">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="16">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+    <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="16">
         <v>67</v>
       </c>
-      <c r="D11" s="19">
-        <v>2</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19">
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="16">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <v>68</v>
       </c>
-      <c r="D12" s="19">
-        <v>2</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="16">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16">
         <v>5</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="16">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>70</v>
       </c>
-      <c r="D13" s="19">
-        <v>2</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20">
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>71</v>
       </c>
-      <c r="D14" s="19">
-        <v>2</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20">
+      <c r="D14" s="16">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="17">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+    <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>72</v>
       </c>
-      <c r="D15" s="19">
-        <v>2</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20">
+      <c r="D15" s="16">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="17">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+    <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>73</v>
       </c>
-      <c r="D16" s="19">
-        <v>2</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="16">
         <v>5</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20">
+      <c r="F16" s="16"/>
+      <c r="G16" s="17">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="17">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="19">
         <v>74</v>
       </c>
-      <c r="D17" s="23">
-        <v>2</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="13">
+      <c r="D17" s="20">
+        <v>2</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19">
         <v>1612828800</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="19">
         <v>1613404799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="19">
         <v>75</v>
       </c>
-      <c r="D18" s="23">
-        <v>2</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="13">
+      <c r="D18" s="20">
+        <v>2</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19">
         <v>1612828800</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="19">
         <v>1613404799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="19">
         <v>76</v>
       </c>
-      <c r="D19" s="23">
-        <v>2</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="13">
+      <c r="D19" s="20">
+        <v>2</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19">
         <v>1612828800</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="19">
         <v>1613404799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="22">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="23">
         <v>2</v>
       </c>
-      <c r="E20" s="23">
-        <v>5</v>
-      </c>
+      <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="13">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="H20" s="13">
-        <v>1613404799</v>
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="22">
+        <v>79</v>
+      </c>
+      <c r="D21" s="23">
+        <v>2</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="13">
+        <v>1613433600</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>22</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="22">
+        <v>80</v>
+      </c>
+      <c r="D22" s="23">
+        <v>2</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="13">
+        <v>1613433600</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>23</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="22">
+        <v>81</v>
+      </c>
+      <c r="D23" s="23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="23">
+        <v>5</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="13">
+        <v>1613433600</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1614009599</v>
       </c>
     </row>
   </sheetData>
@@ -2063,14 +2141,14 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.75" style="2"/>
@@ -2090,7 +2168,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2098,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -2107,88 +2185,104 @@
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>69</v>
+      <c r="E5" s="19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>71</v>
+      <c r="E6" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>

--- a/config_2.9/fish_3d_yutu_random_3.xlsx
+++ b/config_2.9/fish_3d_yutu_random_3.xlsx
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1791,15 +1791,13 @@
       <c r="D17" s="23">
         <v>2</v>
       </c>
-      <c r="E17" s="23">
-        <v>1</v>
-      </c>
+      <c r="E17" s="23"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="20">
-        <v>1612224000</v>
-      </c>
-      <c r="H17" s="20">
-        <v>1612799999</v>
+      <c r="G17" s="13">
+        <v>1612828800</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1815,15 +1813,13 @@
       <c r="D18" s="23">
         <v>2</v>
       </c>
-      <c r="E18" s="23">
-        <v>1</v>
-      </c>
+      <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="20">
-        <v>1612224000</v>
-      </c>
-      <c r="H18" s="20">
-        <v>1612799999</v>
+      <c r="G18" s="13">
+        <v>1612828800</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1839,15 +1835,13 @@
       <c r="D19" s="23">
         <v>2</v>
       </c>
-      <c r="E19" s="23">
-        <v>1</v>
-      </c>
+      <c r="E19" s="23"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="20">
-        <v>1612224000</v>
-      </c>
-      <c r="H19" s="20">
-        <v>1612799999</v>
+      <c r="G19" s="13">
+        <v>1612828800</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1867,11 +1861,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="23"/>
-      <c r="G20" s="20">
-        <v>1612224000</v>
-      </c>
-      <c r="H20" s="20">
-        <v>1612799999</v>
+      <c r="G20" s="13">
+        <v>1612828800</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1613404799</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/fish_3d_yutu_random_3.xlsx
+++ b/config_2.9/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,21 @@
   </si>
   <si>
     <t>168,169,176,178,186,187,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>84,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +486,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -541,6 +556,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1098,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1397,41 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="11">
+        <v>290</v>
+      </c>
+      <c r="D16" s="11">
+        <v>300</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="11">
+        <v>290</v>
+      </c>
+      <c r="D17" s="11">
+        <v>300</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2145,7 +2195,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/config_2.9/fish_3d_yutu_random_3.xlsx
+++ b/config_2.9/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1601,10 +1601,10 @@
         <v>65</v>
       </c>
       <c r="D16" s="11">
-        <v>290</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="11">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>66</v>
@@ -1623,10 +1623,10 @@
         <v>67</v>
       </c>
       <c r="D17" s="11">
-        <v>290</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="11">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>68</v>
@@ -2815,7 +2815,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/config_2.9/fish_3d_yutu_random_3.xlsx
+++ b/config_2.9/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,15 +84,6 @@
   <si>
     <t>min_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>create_weight2</t>
   </si>
   <si>
     <t>create_pro|三个档次的出生率</t>
@@ -220,12 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
     <t>dead_force_create_index|死亡强制创建标志索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,47 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,161,162,163,170,171,172,170,171,172,
-179,180,181,179,180,181,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,173,174,182,183,185,176,167,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,175,176,176,184,185,185,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,176,178,186,187,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>188,188,188,189,189,189,189,189,189,189,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,6 +301,126 @@
   </si>
   <si>
     <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,8 +492,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,7 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +562,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -516,9 +592,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,34 +602,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -855,25 +930,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -922,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -971,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1028,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1076,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1112,326 +1187,905 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.25" customWidth="1"/>
-    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="41.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.25" customWidth="1"/>
+    <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.25" customWidth="1"/>
+    <col min="8" max="8" width="41.25" style="11" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="11">
+        <v>84</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="11">
         <v>180</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E2" s="11">
         <v>220</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="11">
+        <v>83</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="11">
         <v>180</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E3" s="11">
         <v>220</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="11">
+        <v>85</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="11">
         <v>200</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="11">
         <v>250</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11">
         <v>300</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>500</v>
       </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="11">
         <v>400</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>600</v>
       </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="11">
+        <v>87</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="11">
         <v>20</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>30</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="11">
+        <v>88</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="11">
         <v>280</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E8" s="11">
         <v>300</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="11">
+        <v>89</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="11">
         <v>40</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="11">
         <v>80</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="11">
+        <v>90</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="11">
         <v>50</v>
       </c>
-      <c r="D10" s="11">
+      <c r="E10" s="11">
         <v>100</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
         <v>1500</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1800</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12">
+        <v>92</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
         <v>3000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3300</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="11">
+        <v>93</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="11">
         <v>4500</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="11">
         <v>4800</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="11">
+        <v>94</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="11">
         <v>500</v>
       </c>
-      <c r="D14" s="11">
+      <c r="E14" s="11">
         <v>700</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="11">
+        <v>95</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="11">
         <v>2000</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>4000</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="11">
         <v>290</v>
       </c>
-      <c r="D16" s="11">
+      <c r="E16" s="11">
         <v>300</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="11">
         <v>290</v>
       </c>
-      <c r="D17" s="11">
+      <c r="E17" s="11">
         <v>300</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="27">
+        <v>1612828800</v>
+      </c>
+      <c r="J18" s="27">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="27">
+        <v>1612828800</v>
+      </c>
+      <c r="J19" s="27">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="27">
+        <v>1612828800</v>
+      </c>
+      <c r="J20" s="27">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="27">
+        <v>1612828800</v>
+      </c>
+      <c r="J21" s="27">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="27">
+        <v>1612828800</v>
+      </c>
+      <c r="J22" s="27">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="25">
+        <v>6000</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="27">
+        <v>1612828800</v>
+      </c>
+      <c r="J23" s="27">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="28">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="28">
+        <v>3000</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="28">
+        <v>1200</v>
+      </c>
+      <c r="E25" s="28">
+        <v>3000</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J25" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="28">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="28">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="28">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="28">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="28">
+        <v>1200</v>
+      </c>
+      <c r="E28" s="28">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="28">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="28">
+        <v>6000</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J29" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="30">
+        <v>1200</v>
+      </c>
+      <c r="E30" s="30">
+        <v>3000</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J30" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="30">
+        <v>1200</v>
+      </c>
+      <c r="E31" s="30">
+        <v>3000</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J31" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="30">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="30">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J32" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="30">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="30">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J33" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="30">
+        <v>1200</v>
+      </c>
+      <c r="E34" s="30">
+        <v>3000</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J34" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="30">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="30">
+        <v>6000</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J35" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1443,7 +2097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -1461,28 +2115,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1490,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7">
         <v>15</v>
@@ -1514,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8">
         <v>16</v>
@@ -1538,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="8">
         <v>17</v>
@@ -1564,9 +2218,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="14">
+        <v>39</v>
+      </c>
+      <c r="C5" s="13">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1588,9 +2242,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="14">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1611,9 +2265,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="14">
+        <v>39</v>
+      </c>
+      <c r="C7" s="13">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1634,9 +2288,9 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="14">
+        <v>39</v>
+      </c>
+      <c r="C8" s="13">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1652,353 +2306,267 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+    <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="15">
         <v>65</v>
       </c>
-      <c r="D9" s="16">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16">
+      <c r="D9" s="15">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+    <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="15">
         <v>66</v>
       </c>
-      <c r="D10" s="16">
-        <v>2</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16">
+      <c r="D10" s="15">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+    <row r="11" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="15">
         <v>67</v>
       </c>
-      <c r="D11" s="16">
-        <v>2</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16">
+      <c r="D11" s="15">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+    <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="B12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="15">
         <v>68</v>
       </c>
-      <c r="D12" s="16">
-        <v>2</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="D12" s="15">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15">
         <v>5</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+    <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="B13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="16">
         <v>70</v>
       </c>
-      <c r="D13" s="16">
-        <v>2</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17">
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="B14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="16">
         <v>71</v>
       </c>
-      <c r="D14" s="16">
-        <v>2</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17">
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="B15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="16">
         <v>72</v>
       </c>
-      <c r="D15" s="16">
-        <v>2</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17">
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+    <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="B16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="16">
         <v>73</v>
       </c>
-      <c r="D16" s="16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
         <v>5</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17">
+      <c r="F16" s="15"/>
+      <c r="G16" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="19">
-        <v>74</v>
-      </c>
-      <c r="D17" s="20">
-        <v>2</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="19">
-        <v>1612828800</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1613404799</v>
-      </c>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="19">
-        <v>75</v>
-      </c>
-      <c r="D18" s="20">
-        <v>2</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="19">
-        <v>1612828800</v>
-      </c>
-      <c r="H18" s="19">
-        <v>1613404799</v>
-      </c>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="19">
-        <v>76</v>
-      </c>
-      <c r="D19" s="20">
-        <v>2</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="19">
-        <v>1612828800</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1613404799</v>
-      </c>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
-        <v>20</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="22">
-        <v>78</v>
-      </c>
-      <c r="D20" s="23">
-        <v>2</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="13">
-        <v>1613433600</v>
-      </c>
-      <c r="H20" s="13">
-        <v>1614009599</v>
-      </c>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
-        <v>21</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="22">
-        <v>79</v>
-      </c>
-      <c r="D21" s="23">
-        <v>2</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="13">
-        <v>1613433600</v>
-      </c>
-      <c r="H21" s="13">
-        <v>1614009599</v>
-      </c>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
-        <v>22</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="22">
-        <v>80</v>
-      </c>
-      <c r="D22" s="23">
-        <v>2</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="13">
-        <v>1613433600</v>
-      </c>
-      <c r="H22" s="13">
-        <v>1614009599</v>
-      </c>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
-        <v>23</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="22">
-        <v>81</v>
-      </c>
-      <c r="D23" s="23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="23">
-        <v>5</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="13">
-        <v>1613433600</v>
-      </c>
-      <c r="H23" s="13">
-        <v>1614009599</v>
-      </c>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2196,7 +2764,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2210,19 +2778,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2230,113 +2798,73 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>71</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>73</v>
-      </c>
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
-        <v>5</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>75</v>
-      </c>
+      <c r="A6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
@@ -2676,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2741,7 +3269,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_2.9/fish_3d_yutu_random_3.xlsx
+++ b/config_2.9/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,61 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +617,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -616,9 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1189,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1586,27 +1638,27 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>1200</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="24">
         <v>3000</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="27">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="26">
         <v>1612828800</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="26">
         <v>1613404799</v>
       </c>
     </row>
@@ -1614,27 +1666,27 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24">
         <v>1200</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="24">
         <v>3000</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="27">
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="26">
         <v>1612828800</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="26">
         <v>1613404799</v>
       </c>
     </row>
@@ -1642,27 +1694,27 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <v>1200</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="24">
         <v>3000</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="27">
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="26">
         <v>1612828800</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="26">
         <v>1613404799</v>
       </c>
     </row>
@@ -1670,27 +1722,27 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>1200</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="24">
         <v>3000</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="27">
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="26">
         <v>1612828800</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="26">
         <v>1613404799</v>
       </c>
     </row>
@@ -1698,27 +1750,27 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>1200</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="24">
         <v>3000</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="27">
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="26">
         <v>1612828800</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="26">
         <v>1613404799</v>
       </c>
     </row>
@@ -1726,27 +1778,27 @@
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <v>3000</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="24">
         <v>6000</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="27">
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="26">
         <v>1612828800</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="26">
         <v>1613404799</v>
       </c>
     </row>
@@ -1754,23 +1806,23 @@
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <v>1200</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <v>3000</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="17">
         <v>1613433600</v>
       </c>
@@ -1782,23 +1834,23 @@
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="27">
         <v>1200</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <v>3000</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="17">
         <v>1613433600</v>
       </c>
@@ -1810,23 +1862,23 @@
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="27">
         <v>1200</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>3000</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="17">
         <v>1613433600</v>
       </c>
@@ -1838,23 +1890,23 @@
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="27">
         <v>1200</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <v>3000</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="17">
         <v>1613433600</v>
       </c>
@@ -1866,23 +1918,23 @@
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="27">
         <v>1200</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <v>3000</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="17">
         <v>1613433600</v>
       </c>
@@ -1894,23 +1946,23 @@
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="27">
         <v>3000</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <v>6000</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="17">
         <v>1613433600</v>
       </c>
@@ -1922,23 +1974,23 @@
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="29">
         <v>1200</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <v>3000</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="22">
         <v>1614038400</v>
       </c>
@@ -1950,23 +2002,23 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="29">
         <v>1200</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <v>3000</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="22">
         <v>1614038400</v>
       </c>
@@ -1978,23 +2030,23 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="29">
         <v>1200</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="29">
         <v>3000</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="22">
         <v>1614038400</v>
       </c>
@@ -2006,23 +2058,23 @@
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="29">
         <v>1200</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="29">
         <v>3000</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="22">
         <v>1614038400</v>
       </c>
@@ -2034,23 +2086,23 @@
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="29">
         <v>1200</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="29">
         <v>3000</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="22">
         <v>1614038400</v>
       </c>
@@ -2062,23 +2114,23 @@
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="29">
         <v>3000</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="29">
         <v>6000</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="22">
         <v>1614038400</v>
       </c>
@@ -2763,8 +2815,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2811,32 +2863,72 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>

--- a/config_2.9/fish_3d_yutu_random_3.xlsx
+++ b/config_2.9/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>常规活动鱼2.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,6 +432,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>常规活动鱼boss2.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,146 +444,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
     <t>170,171,172,173,174,175,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
     <t>176,177,178,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
     <t>179,180,181,182,183,184</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼boss2.23</t>
-  </si>
-  <si>
     <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +598,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -662,9 +662,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1222,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1242,7 +1241,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -1263,10 +1262,10 @@
         <v>49</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1274,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>61</v>
@@ -1296,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>62</v>
@@ -1318,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>63</v>
@@ -1340,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -1360,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
@@ -1380,7 +1379,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>59</v>
@@ -1401,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>58</v>
@@ -1423,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>50</v>
@@ -1445,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>50</v>
@@ -1466,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1489,7 +1488,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>52</v>
@@ -1512,7 +1511,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>52</v>
@@ -1534,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>54</v>
@@ -1556,7 +1555,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>60</v>
@@ -1576,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>64</v>
@@ -1598,7 +1597,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>66</v>
@@ -1615,24 +1614,24 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D18" s="24">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E18" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>97</v>
+        <v>300</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
@@ -1643,24 +1642,24 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D19" s="24">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E19" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>98</v>
+        <v>300</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
@@ -1671,24 +1670,24 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D20" s="24">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E20" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>98</v>
+        <v>300</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -1699,23 +1698,23 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D21" s="24">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E21" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F21" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="24"/>
@@ -1727,23 +1726,23 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D22" s="24">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F22" s="31" t="s">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="24"/>
@@ -1755,51 +1754,51 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="24">
-        <v>3000</v>
-      </c>
-      <c r="E23" s="24">
-        <v>6000</v>
-      </c>
-      <c r="F23" s="31" t="s">
+      <c r="B23" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="27">
+        <v>200</v>
+      </c>
+      <c r="E23" s="27">
+        <v>300</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="26">
-        <v>1612828800</v>
-      </c>
-      <c r="J23" s="26">
-        <v>1613404799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J23" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D24" s="27">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E24" s="27">
-        <v>3000</v>
-      </c>
-      <c r="F24" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" s="27" t="s">
         <v>48</v>
       </c>
       <c r="G24" s="27"/>
@@ -1811,23 +1810,23 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D25" s="27">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E25" s="27">
-        <v>3000</v>
-      </c>
-      <c r="F25" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>48</v>
       </c>
       <c r="G25" s="27"/>
@@ -1839,23 +1838,23 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D26" s="27">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E26" s="27">
-        <v>3000</v>
-      </c>
-      <c r="F26" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>48</v>
       </c>
       <c r="G26" s="27"/>
@@ -1867,23 +1866,23 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D27" s="27">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E27" s="27">
-        <v>3000</v>
-      </c>
-      <c r="F27" s="32" t="s">
+        <v>6000</v>
+      </c>
+      <c r="F27" s="27" t="s">
         <v>48</v>
       </c>
       <c r="G27" s="27"/>
@@ -1895,79 +1894,79 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="27">
-        <v>1200</v>
-      </c>
-      <c r="E28" s="27">
-        <v>3000</v>
-      </c>
-      <c r="F28" s="32" t="s">
+      <c r="B28" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="29">
+        <v>200</v>
+      </c>
+      <c r="E28" s="29">
+        <v>300</v>
+      </c>
+      <c r="F28" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="17">
-        <v>1613433600</v>
-      </c>
-      <c r="J28" s="17">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J28" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="27">
-        <v>3000</v>
-      </c>
-      <c r="E29" s="27">
-        <v>6000</v>
-      </c>
-      <c r="F29" s="32" t="s">
+      <c r="B29" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="29">
+        <v>200</v>
+      </c>
+      <c r="E29" s="29">
+        <v>300</v>
+      </c>
+      <c r="F29" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="17">
-        <v>1613433600</v>
-      </c>
-      <c r="J29" s="17">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J29" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D30" s="29">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E30" s="29">
-        <v>3000</v>
-      </c>
-      <c r="F30" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="29"/>
@@ -1979,23 +1978,23 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D31" s="29">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E31" s="29">
-        <v>3000</v>
-      </c>
-      <c r="F31" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="F31" s="29" t="s">
         <v>48</v>
       </c>
       <c r="G31" s="29"/>
@@ -2007,23 +2006,23 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D32" s="29">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E32" s="29">
-        <v>3000</v>
-      </c>
-      <c r="F32" s="33" t="s">
+        <v>6000</v>
+      </c>
+      <c r="F32" s="29" t="s">
         <v>48</v>
       </c>
       <c r="G32" s="29"/>
@@ -2035,89 +2034,23 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="29">
-        <v>1200</v>
-      </c>
-      <c r="E33" s="29">
-        <v>3000</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="22">
-        <v>1614038400</v>
-      </c>
-      <c r="J33" s="22">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
-        <v>33</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="29">
-        <v>1200</v>
-      </c>
-      <c r="E34" s="29">
-        <v>3000</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="22">
-        <v>1614038400</v>
-      </c>
-      <c r="J34" s="22">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>34</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="29">
-        <v>3000</v>
-      </c>
-      <c r="E35" s="29">
-        <v>6000</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="22">
-        <v>1614038400</v>
-      </c>
-      <c r="J35" s="22">
-        <v>1614614399</v>
-      </c>
+    <row r="33" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C33" s="20"/>
+      <c r="F33" s="32"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="20"/>
+      <c r="F34" s="32"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C35" s="20"/>
+      <c r="F35" s="32"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2796,7 +2729,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2847,13 +2780,13 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2862,13 +2795,13 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2877,13 +2810,13 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="16" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2892,13 +2825,13 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_2.9/fish_3d_yutu_random_3.xlsx
+++ b/config_2.9/fish_3d_yutu_random_3.xlsx
@@ -328,19 +328,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161,162,163,161,162,163,170,171,172,170,171,172,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,173,174,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,175,176,176,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,176,178,</t>
+    <t>161,162,163,161,162,163,170,171,172,170,171,172,
+179,180,181,179,180,181,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,173,174,182,183,185,176,167,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,175,176,176,184,185,185,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,176,178,186,187,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +471,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -537,6 +538,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2142,7 +2146,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2188,11 +2192,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="19" t="s">

--- a/config_2.9/fish_3d_yutu_random_3.xlsx
+++ b/config_2.9/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="110">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,9 +226,6 @@
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
   </si>
   <si>
-    <t>1,</t>
-  </si>
-  <si>
     <t>max_create_num|最大的创建次数（默认为9999）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,10 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161,162,163,161,162,163,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30,40,30</t>
   </si>
   <si>
@@ -439,10 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>164,165,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight2</t>
   </si>
   <si>
@@ -450,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>166,167,168,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20,60,5</t>
   </si>
   <si>
@@ -461,10 +446,6 @@
   </si>
   <si>
     <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1241,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16:E17"/>
     </sheetView>
   </sheetViews>
@@ -1261,7 +1242,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -1279,13 +1260,13 @@
         <v>45</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1293,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1305,7 +1286,7 @@
         <v>220</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1315,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1327,7 +1308,7 @@
         <v>220</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1337,10 +1318,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1349,7 +1330,7 @@
         <v>250</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1359,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -1379,10 +1360,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="11">
         <v>400</v>
@@ -1399,10 +1380,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
@@ -1420,10 +1401,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="11">
         <v>280</v>
@@ -1442,10 +1423,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="11">
         <v>40</v>
@@ -1464,10 +1445,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="11">
         <v>50</v>
@@ -1485,10 +1466,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>1500</v>
@@ -1497,7 +1478,7 @@
         <v>1800</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
@@ -1508,10 +1489,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>3000</v>
@@ -1520,7 +1501,7 @@
         <v>3300</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="11">
         <v>1</v>
@@ -1531,10 +1512,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="11">
         <v>4500</v>
@@ -1543,7 +1524,7 @@
         <v>4800</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -1553,10 +1534,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="11">
         <v>500</v>
@@ -1575,10 +1556,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="11">
         <v>2000</v>
@@ -1595,10 +1576,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="11">
         <v>3000</v>
@@ -1607,7 +1588,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -1617,10 +1598,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="11">
         <v>3000</v>
@@ -1629,7 +1610,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1639,10 +1620,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="D18" s="24">
         <v>1200</v>
@@ -1651,7 +1632,7 @@
         <v>3000</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
@@ -1667,10 +1648,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="D19" s="24">
         <v>1200</v>
@@ -1679,7 +1660,7 @@
         <v>3000</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
@@ -1695,10 +1676,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="D20" s="24">
         <v>1200</v>
@@ -1707,7 +1688,7 @@
         <v>3000</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -1723,10 +1704,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="D21" s="24">
         <v>1200</v>
@@ -1751,10 +1732,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="D22" s="24">
         <v>1200</v>
@@ -1779,10 +1760,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="D23" s="24">
         <v>3000</v>
@@ -1807,10 +1788,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="D24" s="27">
         <v>1200</v>
@@ -1835,10 +1816,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="D25" s="27">
         <v>1200</v>
@@ -1863,10 +1844,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="D26" s="27">
         <v>1200</v>
@@ -1891,10 +1872,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="D27" s="27">
         <v>1200</v>
@@ -1919,10 +1900,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="D28" s="27">
         <v>1200</v>
@@ -1947,10 +1928,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>75</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>76</v>
       </c>
       <c r="D29" s="27">
         <v>3000</v>
@@ -1975,10 +1956,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>78</v>
       </c>
       <c r="D30" s="29">
         <v>1200</v>
@@ -2003,10 +1984,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>77</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>78</v>
       </c>
       <c r="D31" s="29">
         <v>1200</v>
@@ -2031,10 +2012,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>78</v>
       </c>
       <c r="D32" s="29">
         <v>1200</v>
@@ -2059,10 +2040,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>77</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>78</v>
       </c>
       <c r="D33" s="29">
         <v>1200</v>
@@ -2087,10 +2068,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>77</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>78</v>
       </c>
       <c r="D34" s="29">
         <v>1200</v>
@@ -2115,10 +2096,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>79</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>80</v>
       </c>
       <c r="D35" s="29">
         <v>3000</v>
@@ -2815,8 +2796,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2849,9 +2830,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
@@ -2866,68 +2845,60 @@
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>104</v>
-      </c>
+      <c r="B4" s="18"/>
       <c r="C4" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>107</v>
-      </c>
+      <c r="B5" s="19"/>
       <c r="C5" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
